--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixiongchen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixiongchen/Documents/forth-year/2017-Winter/CSC443/A1/part1/CSC443/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="600" windowWidth="22660" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="440" windowWidth="22660" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="write_blocks_seq" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>read_block_seq</t>
   </si>
@@ -68,9 +69,6 @@
     <t>write_ram_rand</t>
   </si>
   <si>
-    <t>byte</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
@@ -80,7 +78,58 @@
     <t>write_lines</t>
   </si>
   <si>
-    <t>16384 block size</t>
+    <t>512 B</t>
+  </si>
+  <si>
+    <t>4 KB</t>
+  </si>
+  <si>
+    <t>1 KB</t>
+  </si>
+  <si>
+    <t>8 KB</t>
+  </si>
+  <si>
+    <t>16 KB</t>
+  </si>
+  <si>
+    <t>32 KB</t>
+  </si>
+  <si>
+    <t>1 MB</t>
+  </si>
+  <si>
+    <t>2 MB</t>
+  </si>
+  <si>
+    <t>4 MB</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 5</t>
+  </si>
+  <si>
+    <t>block size 2MB</t>
+  </si>
+  <si>
+    <t>2097152 Byte</t>
+  </si>
+  <si>
+    <t>read_blocks_seq</t>
+  </si>
+  <si>
+    <t>read_blocks_rand</t>
   </si>
 </sst>
 </file>
@@ -187,6 +236,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log 2 of avg in bps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -236,28 +296,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.85810551547866</c:v>
+                  <c:v>30.91282423389566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.33631574993663</c:v>
+                  <c:v>31.30008390343932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.99080967623254</c:v>
+                  <c:v>29.00388946539801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.09964920617769</c:v>
+                  <c:v>31.45311905045581</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.09121744489229</c:v>
+                  <c:v>31.56774345706066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.93026897692632</c:v>
+                  <c:v>28.59142435591937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.541683643737348</c:v>
+                  <c:v>16.2821432287815</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.58555223205101</c:v>
+                  <c:v>27.33423573675244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,11 +332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2128354272"/>
-        <c:axId val="-2128349488"/>
+        <c:axId val="-2082968064"/>
+        <c:axId val="-2086049552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128354272"/>
+        <c:axId val="-2082968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -319,7 +379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128349488"/>
+        <c:crossAx val="-2086049552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -327,7 +387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128349488"/>
+        <c:axId val="-2086049552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128354272"/>
+        <c:crossAx val="-2082968064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,20 +1036,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364244</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>808744</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1270,24 +1330,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,34 +1375,34 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>1521.0989999999999</v>
+        <v>1854.787</v>
       </c>
       <c r="C2">
+        <v>1535.4490000000001</v>
+      </c>
+      <c r="D2">
+        <v>2284.317</v>
+      </c>
+      <c r="E2">
         <v>1648.1780000000001</v>
       </c>
-      <c r="D2">
-        <v>1960.9349999999999</v>
-      </c>
-      <c r="E2">
-        <v>2070.62</v>
-      </c>
       <c r="F2">
-        <v>2079.9690000000001</v>
+        <v>2316.8339999999998</v>
       </c>
       <c r="G2">
         <f>AVERAGE(B2:F2)</f>
-        <v>1856.1601999999998</v>
+        <v>1927.9129999999998</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>9.7317260000000001</v>
@@ -1356,8 +1414,8 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <f>LOG(G2*1024*1024,2)</f>
-        <v>30.858105515478659</v>
+        <f>LOG(G2*1024*1024, 2)</f>
+        <v>30.912824233895662</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1365,67 +1423,67 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2604.1210000000001</v>
+        <v>2494.3690000000001</v>
       </c>
       <c r="C3">
-        <v>2593.7460000000001</v>
+        <v>2543.087</v>
       </c>
       <c r="D3">
-        <v>2573.2420000000002</v>
+        <v>2513.6309999999999</v>
       </c>
       <c r="E3">
-        <v>2553.06</v>
+        <v>2523.373</v>
       </c>
       <c r="F3">
-        <v>2604.1210000000001</v>
+        <v>2533.192</v>
       </c>
       <c r="G3">
         <f>AVERAGE(B3:F3)</f>
-        <v>2585.6580000000004</v>
+        <v>2521.5303999999996</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="0">LOG(G3*1024*1024,2)</f>
-        <v>31.336315749936631</v>
+        <f t="shared" ref="M3:M10" si="0">LOG(G3*1024*1024, 2)</f>
+        <v>31.300083903439322</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>60.095999999999997</v>
+        <v>508.90600000000001</v>
       </c>
       <c r="C4">
-        <v>53.878999999999998</v>
+        <v>540.54100000000005</v>
       </c>
       <c r="D4">
-        <v>86.805999999999997</v>
+        <v>523.55999999999995</v>
       </c>
       <c r="E4">
-        <v>65.103999999999999</v>
+        <v>466.2</v>
       </c>
       <c r="F4">
-        <v>52.082999999999998</v>
+        <v>527.70399999999995</v>
       </c>
       <c r="G4">
         <f>AVERAGE(B4:F4)</f>
-        <v>63.593599999999995</v>
+        <v>513.38220000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>25.990809676232544</v>
+        <v>29.003889465398011</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1433,33 +1491,33 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1925.9259999999999</v>
+        <v>2941.1770000000001</v>
       </c>
       <c r="C5">
-        <v>1666.6669999999999</v>
+        <v>2857.143</v>
       </c>
       <c r="D5">
-        <v>2142.857</v>
+        <v>2702.703</v>
       </c>
       <c r="E5">
-        <v>2500</v>
+        <v>2739.7260000000001</v>
       </c>
       <c r="F5">
-        <v>2736.8420000000001</v>
+        <v>2777.7779999999998</v>
       </c>
       <c r="G5">
         <f>AVERAGE(B5:F5)</f>
-        <v>2194.4584000000004</v>
+        <v>2803.7053999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>31.099649206177688</v>
+        <v>31.453119050455811</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1467,70 +1525,67 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>34.042999999999999</v>
+        <v>3207.0459999999998</v>
       </c>
       <c r="C7">
-        <v>33.959000000000003</v>
+        <v>3000.14</v>
       </c>
       <c r="D7">
-        <v>34.213999999999999</v>
+        <v>2842.9270000000001</v>
       </c>
       <c r="E7">
-        <v>34.018000000000001</v>
+        <v>3042.1979999999999</v>
       </c>
       <c r="F7">
-        <v>34.209000000000003</v>
+        <v>3085.4520000000002</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G9" si="1">AVERAGE(B7:F7)</f>
-        <v>34.0886</v>
+        <f t="shared" ref="G7" si="1">AVERAGE(B7:F7)</f>
+        <v>3035.5526</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>25.091217444892294</v>
+        <v>31.567743457060661</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>58.481000000000002</v>
+        <v>387.96300000000002</v>
       </c>
       <c r="C8">
-        <v>61.488</v>
+        <v>358.04399999999998</v>
       </c>
       <c r="D8">
-        <v>62.201999999999998</v>
+        <v>394.65699999999998</v>
       </c>
       <c r="E8">
-        <v>60.146999999999998</v>
+        <v>394.40899999999999</v>
       </c>
       <c r="F8">
-        <v>62.582999999999998</v>
+        <v>393.54599999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>60.980199999999989</v>
+        <f t="shared" ref="G7:G9" si="2">AVERAGE(B8:F8)</f>
+        <v>385.72379999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>25.930268976926317</v>
+        <v>28.591424355919372</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1538,23 +1593,23 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>399.8</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>384.06099999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D9">
-        <v>399.40100000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>341.44299999999998</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>338.553</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>372.65159999999997</v>
+        <f t="shared" si="2"/>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1563,8 +1618,8 @@
         <v>12</v>
       </c>
       <c r="M9">
-        <f>LOG(G9, 2)</f>
-        <v>8.5416836437373487</v>
+        <f t="shared" si="0"/>
+        <v>16.2821432287815</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1572,37 +1627,298 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>376.017</v>
+        <v>152.58799999999999</v>
       </c>
       <c r="C10">
-        <v>382.81</v>
+        <v>127.157</v>
       </c>
       <c r="D10">
-        <v>387.87</v>
+        <v>158.946</v>
       </c>
       <c r="E10">
-        <v>387.67200000000003</v>
+        <v>190.73500000000001</v>
       </c>
       <c r="F10">
-        <v>386.416</v>
+        <v>177.428</v>
       </c>
       <c r="G10">
         <f>AVERAGE(B10:F10)</f>
-        <v>384.15700000000004</v>
+        <v>161.3708</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
       </c>
       <c r="M10">
-        <f>LOG(G10*1024*1024,2)</f>
-        <v>28.585552232051015</v>
+        <f t="shared" si="0"/>
+        <v>27.334235736752436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1542.7260000000001</v>
+      </c>
+      <c r="C2">
+        <v>1443.5260000000001</v>
+      </c>
+      <c r="D2">
+        <v>1359.145</v>
+      </c>
+      <c r="E2">
+        <v>1440.3330000000001</v>
+      </c>
+      <c r="F2">
+        <v>1486.3710000000001</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>1454.4202000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1510.511</v>
+      </c>
+      <c r="C3">
+        <v>1479.614</v>
+      </c>
+      <c r="D3">
+        <v>1546.39</v>
+      </c>
+      <c r="E3">
+        <v>1587.8789999999999</v>
+      </c>
+      <c r="F3">
+        <v>1424.5740000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="0">AVERAGE(B3:F3)</f>
+        <v>1509.7936000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1595.663</v>
+      </c>
+      <c r="C4">
+        <v>1745.39</v>
+      </c>
+      <c r="D4">
+        <v>1803.4079999999999</v>
+      </c>
+      <c r="E4">
+        <v>1854.787</v>
+      </c>
+      <c r="F4">
+        <v>1070.7739999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1614.0043999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>865.73199999999997</v>
+      </c>
+      <c r="C5">
+        <v>1881.5909999999999</v>
+      </c>
+      <c r="D5">
+        <v>2120.62</v>
+      </c>
+      <c r="E5">
+        <v>934.04600000000005</v>
+      </c>
+      <c r="F5">
+        <v>920.83500000000004</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1344.5647999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1903.598</v>
+      </c>
+      <c r="C6">
+        <v>2148.6149999999998</v>
+      </c>
+      <c r="D6">
+        <v>2376.0230000000001</v>
+      </c>
+      <c r="E6">
+        <v>1063.7750000000001</v>
+      </c>
+      <c r="F6">
+        <v>2358.806</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1970.1634000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2604.1210000000001</v>
+      </c>
+      <c r="C7">
+        <v>1446.7339999999999</v>
+      </c>
+      <c r="D7">
+        <v>2402.326</v>
+      </c>
+      <c r="E7">
+        <v>2221.9470000000001</v>
+      </c>
+      <c r="F7">
+        <v>2573.2420000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2249.674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2919.4180000000001</v>
+      </c>
+      <c r="C8">
+        <v>2945.8389999999999</v>
+      </c>
+      <c r="D8">
+        <v>3056.48</v>
+      </c>
+      <c r="E8">
+        <v>2919.4180000000001</v>
+      </c>
+      <c r="F8">
+        <v>3056.48</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2979.5269999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>3207.0459999999998</v>
+      </c>
+      <c r="C9">
+        <v>3000.14</v>
+      </c>
+      <c r="D9">
+        <v>2842.9270000000001</v>
+      </c>
+      <c r="E9">
+        <v>3042.1979999999999</v>
+      </c>
+      <c r="F9">
+        <v>3085.4520000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3035.5526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>2614.58</v>
+      </c>
+      <c r="C10">
+        <v>2668.1570000000002</v>
+      </c>
+      <c r="D10">
+        <v>2758.6030000000001</v>
+      </c>
+      <c r="E10">
+        <v>2794.1219999999998</v>
+      </c>
+      <c r="F10">
+        <v>2679.1370000000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2702.9198000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixiongchen/Documents/forth-year/2017-Winter/CSC443/A1/part1/CSC443/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\GitHub\CSC443\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="write_blocks_seq" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
-  <si>
-    <t>read_block_seq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>test1</t>
   </si>
@@ -54,9 +51,6 @@
     <t>read_ram_seq</t>
   </si>
   <si>
-    <t>read_blcoks_rand</t>
-  </si>
-  <si>
     <t>read_ram_rand</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>log 2 of avg in bps</t>
-  </si>
-  <si>
     <t>write_lines</t>
   </si>
   <si>
@@ -130,12 +121,24 @@
   </si>
   <si>
     <t>read_blocks_rand</t>
+  </si>
+  <si>
+    <t>Rate (MBPS)</t>
+  </si>
+  <si>
+    <t>Block Size (Byte)</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Log(Rate) in BPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,14 +180,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -196,7 +202,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -242,7 +247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>log 2 of avg in bps</c:v>
+                  <c:v>Log(Rate) in BPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,13 +268,13 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>read_block_seq</c:v>
+                  <c:v>read_blocks_seq</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>read_ram_seq</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>read_blcoks_rand</c:v>
+                  <c:v>read_blocks_rand</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>read_ram_rand</c:v>
@@ -296,32 +301,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30.91282423389566</c:v>
+                  <c:v>30.912824233895662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.30008390343932</c:v>
+                  <c:v>31.300083903439322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.00388946539801</c:v>
+                  <c:v>29.003889465398011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.45311905045581</c:v>
+                  <c:v>31.453119050455811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.56774345706066</c:v>
+                  <c:v>31.567743457060661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.59142435591937</c:v>
+                  <c:v>28.591424355919372</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.2821432287815</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.33423573675244</c:v>
+                  <c:v>27.334235736752436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2C4-45C5-BAFA-0AD6E1C759CB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -332,11 +342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2082968064"/>
-        <c:axId val="-2086049552"/>
+        <c:axId val="398358168"/>
+        <c:axId val="398358496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082968064"/>
+        <c:axId val="398358168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086049552"/>
+        <c:crossAx val="398358496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -387,7 +397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086049552"/>
+        <c:axId val="398358496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082968064"/>
+        <c:crossAx val="398358168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,20 +1046,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>364244</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127706</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>808744</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>31045</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1065,6 +1075,17 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="I1:J10" totalsRowShown="0">
+  <autoFilter ref="I1:J10"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Block Size (Byte)"/>
+    <tableColumn id="2" name="Rate (MBPS)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,11 +1353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="9.5" bestFit="1" customWidth="1"/>
@@ -1349,38 +1370,41 @@
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
+      <c r="L1" t="s">
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1854.787</v>
@@ -1402,7 +1426,7 @@
         <v>1927.9129999999998</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>9.7317260000000001</v>
@@ -1411,16 +1435,16 @@
         <v>214381</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <f>LOG(G2*1024*1024, 2)</f>
         <v>30.912824233895662</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2494.3690000000001</v>
@@ -1442,19 +1466,19 @@
         <v>2521.5303999999996</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M10" si="0">LOG(G3*1024*1024, 2)</f>
         <v>31.300083903439322</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>508.90600000000001</v>
@@ -1476,19 +1500,19 @@
         <v>513.38220000000001</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
         <v>29.003889465398011</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2941.1770000000001</v>
@@ -1510,19 +1534,19 @@
         <v>2803.7053999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>31.453119050455811</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3207.0459999999998</v>
@@ -1544,19 +1568,19 @@
         <v>3035.5526</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>31.567743457060661</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>387.96300000000002</v>
@@ -1574,23 +1598,23 @@
         <v>393.54599999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G7:G9" si="2">AVERAGE(B8:F8)</f>
+        <f t="shared" ref="G8:G9" si="2">AVERAGE(B8:F8)</f>
         <v>385.72379999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>28.591424355919372</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>7.5999999999999998E-2</v>
@@ -1612,19 +1636,19 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>16.2821432287815</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>152.58799999999999</v>
@@ -1646,24 +1670,24 @@
         <v>161.3708</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
         <v>27.334235736752436</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1674,37 +1698,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1542.7260000000001</v>
@@ -1725,10 +1762,16 @@
         <f>AVERAGE(B2:F2)</f>
         <v>1454.4202000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>512</v>
+      </c>
+      <c r="J2">
+        <v>1454.4202000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1510.511</v>
@@ -1749,10 +1792,17 @@
         <f t="shared" ref="G3:G10" si="0">AVERAGE(B3:F3)</f>
         <v>1509.7936000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f>1 * 1024</f>
+        <v>1024</v>
+      </c>
+      <c r="J3">
+        <v>1509.7936000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1595.663</v>
@@ -1773,10 +1823,17 @@
         <f t="shared" si="0"/>
         <v>1614.0043999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f xml:space="preserve"> 4* 1024</f>
+        <v>4096</v>
+      </c>
+      <c r="J4">
+        <v>1614.0043999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>865.73199999999997</v>
@@ -1797,10 +1854,17 @@
         <f t="shared" si="0"/>
         <v>1344.5647999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f>8*1024</f>
+        <v>8192</v>
+      </c>
+      <c r="J5">
+        <v>1344.5647999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>1903.598</v>
@@ -1821,10 +1885,17 @@
         <f t="shared" si="0"/>
         <v>1970.1634000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f>16 * 1024</f>
+        <v>16384</v>
+      </c>
+      <c r="J6">
+        <v>1970.1634000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2604.1210000000001</v>
@@ -1845,10 +1916,17 @@
         <f t="shared" si="0"/>
         <v>2249.674</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f>32*1024</f>
+        <v>32768</v>
+      </c>
+      <c r="J7">
+        <v>2249.674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>2919.4180000000001</v>
@@ -1869,10 +1947,17 @@
         <f t="shared" si="0"/>
         <v>2979.5269999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f xml:space="preserve"> 1 *1024*1024</f>
+        <v>1048576</v>
+      </c>
+      <c r="J8">
+        <v>2979.5269999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>3207.0459999999998</v>
@@ -1893,10 +1978,17 @@
         <f t="shared" si="0"/>
         <v>3035.5526</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f>1024* 1024*2</f>
+        <v>2097152</v>
+      </c>
+      <c r="J9">
+        <v>3035.5526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2614.58</v>
@@ -1917,8 +2009,27 @@
         <f t="shared" si="0"/>
         <v>2702.9198000000001</v>
       </c>
+      <c r="I10">
+        <f>4*1024*1024</f>
+        <v>4194304</v>
+      </c>
+      <c r="J10">
+        <v>2702.9198000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>385.72379999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -262,6 +262,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$L$2:$L$10</c:f>
@@ -313,10 +371,10 @@
                   <c:v>31.453119050455811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.567743457060661</c:v>
+                  <c:v>28.259652886488773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.591424355919372</c:v>
+                  <c:v>23.987248092591152</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16.2821432287815</c:v>
@@ -329,24 +387,25 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2C4-45C5-BAFA-0AD6E1C759CB}"/>
+              <c16:uniqueId val="{00000000-90A7-4B3A-855C-AA8E993EEC9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="398358168"/>
-        <c:axId val="398358496"/>
+        <c:axId val="309975040"/>
+        <c:axId val="309975368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398358168"/>
+        <c:axId val="309975040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398358496"/>
+        <c:crossAx val="309975368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398358496"/>
+        <c:axId val="309975368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398358168"/>
+        <c:crossAx val="309975040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,20 +1105,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1353,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1549,23 +1608,23 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3207.0459999999998</v>
+        <v>309.27800000000002</v>
       </c>
       <c r="C7">
-        <v>3000.14</v>
+        <v>287.685</v>
       </c>
       <c r="D7">
-        <v>2842.9270000000001</v>
+        <v>310.45800000000003</v>
       </c>
       <c r="E7">
-        <v>3042.1979999999999</v>
+        <v>315.11599999999999</v>
       </c>
       <c r="F7">
-        <v>3085.4520000000002</v>
+        <v>309.86700000000002</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7" si="1">AVERAGE(B7:F7)</f>
-        <v>3035.5526</v>
+        <v>306.48079999999999</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1575,7 +1634,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>31.567743457060661</v>
+        <v>28.259652886488773</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1583,23 +1642,23 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>387.96300000000002</v>
+        <v>15.862</v>
       </c>
       <c r="C8">
-        <v>358.04399999999998</v>
+        <v>15.930999999999999</v>
       </c>
       <c r="D8">
-        <v>394.65699999999998</v>
+        <v>15.930999999999999</v>
       </c>
       <c r="E8">
-        <v>394.40899999999999</v>
+        <v>15.702999999999999</v>
       </c>
       <c r="F8">
-        <v>393.54599999999999</v>
+        <v>15.869</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G9" si="2">AVERAGE(B8:F8)</f>
-        <v>385.72379999999998</v>
+        <v>15.859199999999998</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1609,7 +1668,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>28.591424355919372</v>
+        <v>23.987248092591152</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1701,7 +1760,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B9" sqref="B9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1744,29 +1803,29 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1542.7260000000001</v>
+        <v>248.67500000000001</v>
       </c>
       <c r="C2">
-        <v>1443.5260000000001</v>
+        <v>261.35300000000001</v>
       </c>
       <c r="D2">
-        <v>1359.145</v>
+        <v>250.3</v>
       </c>
       <c r="E2">
-        <v>1440.3330000000001</v>
+        <v>254.309</v>
       </c>
       <c r="F2">
-        <v>1486.3710000000001</v>
+        <v>261.45800000000003</v>
       </c>
       <c r="G2">
         <f>AVERAGE(B2:F2)</f>
-        <v>1454.4202000000002</v>
+        <v>255.21899999999999</v>
       </c>
       <c r="I2">
         <v>512</v>
       </c>
       <c r="J2">
-        <v>1454.4202000000002</v>
+        <v>255.21899999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1774,30 +1833,30 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1510.511</v>
+        <v>261.35300000000001</v>
       </c>
       <c r="C3">
-        <v>1479.614</v>
+        <v>263.04300000000001</v>
       </c>
       <c r="D3">
-        <v>1546.39</v>
+        <v>248.77</v>
       </c>
       <c r="E3">
-        <v>1587.8789999999999</v>
+        <v>245.57900000000001</v>
       </c>
       <c r="F3">
-        <v>1424.5740000000001</v>
+        <v>267.58300000000003</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">AVERAGE(B3:F3)</f>
-        <v>1509.7936000000002</v>
+        <f>AVERAGE(B3:F3)</f>
+        <v>257.26560000000001</v>
       </c>
       <c r="I3">
         <f>1 * 1024</f>
         <v>1024</v>
       </c>
       <c r="J3">
-        <v>1509.7936000000002</v>
+        <v>257.26560000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1805,30 +1864,30 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>1595.663</v>
+        <v>291.15800000000002</v>
       </c>
       <c r="C4">
-        <v>1745.39</v>
+        <v>284.541</v>
       </c>
       <c r="D4">
-        <v>1803.4079999999999</v>
+        <v>284.91500000000002</v>
       </c>
       <c r="E4">
-        <v>1854.787</v>
+        <v>289.08999999999997</v>
       </c>
       <c r="F4">
-        <v>1070.7739999999999</v>
+        <v>277.38799999999998</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1614.0043999999998</v>
+        <f t="shared" ref="G3:G10" si="0">AVERAGE(B4:F4)</f>
+        <v>285.41839999999996</v>
       </c>
       <c r="I4">
         <f xml:space="preserve"> 4* 1024</f>
         <v>4096</v>
       </c>
       <c r="J4">
-        <v>1614.0043999999998</v>
+        <v>285.41839999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1836,30 +1895,30 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>865.73199999999997</v>
+        <v>278.21800000000002</v>
       </c>
       <c r="C5">
-        <v>1881.5909999999999</v>
+        <v>288.70499999999998</v>
       </c>
       <c r="D5">
-        <v>2120.62</v>
+        <v>273.08300000000003</v>
       </c>
       <c r="E5">
-        <v>934.04600000000005</v>
+        <v>270.58600000000001</v>
       </c>
       <c r="F5">
-        <v>920.83500000000004</v>
+        <v>298.77499999999998</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1344.5647999999999</v>
+        <v>281.87340000000006</v>
       </c>
       <c r="I5">
         <f>8*1024</f>
         <v>8192</v>
       </c>
       <c r="J5">
-        <v>1344.5647999999999</v>
+        <v>281.87340000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1867,30 +1926,30 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1903.598</v>
+        <v>290.76799999999997</v>
       </c>
       <c r="C6">
-        <v>2148.6149999999998</v>
+        <v>286.67099999999999</v>
       </c>
       <c r="D6">
-        <v>2376.0230000000001</v>
+        <v>275.62700000000001</v>
       </c>
       <c r="E6">
-        <v>1063.7750000000001</v>
+        <v>279.53199999999998</v>
       </c>
       <c r="F6">
-        <v>2358.806</v>
+        <v>284.16899999999998</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1970.1634000000001</v>
+        <v>283.35339999999997</v>
       </c>
       <c r="I6">
         <f>16 * 1024</f>
         <v>16384</v>
       </c>
       <c r="J6">
-        <v>1970.1634000000001</v>
+        <v>283.35339999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1898,30 +1957,30 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2604.1210000000001</v>
+        <v>280.61700000000002</v>
       </c>
       <c r="C7">
-        <v>1446.7339999999999</v>
+        <v>297.95400000000001</v>
       </c>
       <c r="D7">
-        <v>2402.326</v>
+        <v>293.91899999999998</v>
       </c>
       <c r="E7">
-        <v>2221.9470000000001</v>
+        <v>295.11799999999999</v>
       </c>
       <c r="F7">
-        <v>2573.2420000000002</v>
+        <v>288.70499999999998</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2249.674</v>
+        <v>291.26259999999996</v>
       </c>
       <c r="I7">
         <f>32*1024</f>
         <v>32768</v>
       </c>
       <c r="J7">
-        <v>2249.674</v>
+        <v>291.26259999999996</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1929,30 +1988,30 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>2919.4180000000001</v>
+        <v>259.47800000000001</v>
       </c>
       <c r="C8">
-        <v>2945.8389999999999</v>
+        <v>306.36700000000002</v>
       </c>
       <c r="D8">
-        <v>3056.48</v>
+        <v>304.36200000000002</v>
       </c>
       <c r="E8">
-        <v>2919.4180000000001</v>
+        <v>307.23500000000001</v>
       </c>
       <c r="F8">
-        <v>3056.48</v>
+        <v>305.64800000000002</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2979.5269999999996</v>
+        <v>296.61800000000005</v>
       </c>
       <c r="I8">
         <f xml:space="preserve"> 1 *1024*1024</f>
         <v>1048576</v>
       </c>
       <c r="J8">
-        <v>2979.5269999999996</v>
+        <v>296.61800000000005</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1960,30 +2019,30 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>3207.0459999999998</v>
+        <v>309.27800000000002</v>
       </c>
       <c r="C9">
-        <v>3000.14</v>
+        <v>287.685</v>
       </c>
       <c r="D9">
-        <v>2842.9270000000001</v>
+        <v>310.45800000000003</v>
       </c>
       <c r="E9">
-        <v>3042.1979999999999</v>
+        <v>315.11599999999999</v>
       </c>
       <c r="F9">
-        <v>3085.4520000000002</v>
+        <v>309.86700000000002</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3035.5526</v>
+        <v>306.48079999999999</v>
       </c>
       <c r="I9">
         <f>1024* 1024*2</f>
         <v>2097152</v>
       </c>
       <c r="J9">
-        <v>3035.5526</v>
+        <v>306.48079999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1991,30 +2050,30 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>2614.58</v>
+        <v>259.47800000000001</v>
       </c>
       <c r="C10">
-        <v>2668.1570000000002</v>
+        <v>318.041</v>
       </c>
       <c r="D10">
-        <v>2758.6030000000001</v>
+        <v>312.09500000000003</v>
       </c>
       <c r="E10">
-        <v>2794.1219999999998</v>
+        <v>321.33800000000002</v>
       </c>
       <c r="F10">
-        <v>2679.1370000000002</v>
+        <v>309.572</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>2702.9198000000001</v>
+        <v>304.10479999999995</v>
       </c>
       <c r="I10">
         <f>4*1024*1024</f>
         <v>4194304</v>
       </c>
       <c r="J10">
-        <v>2702.9198000000001</v>
+        <v>304.10480000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
